--- a/df_2/df_2_15.xlsx
+++ b/df_2/df_2_15.xlsx
@@ -659,377 +659,377 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.2728 %</t>
+          <t>5,2728</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6809 %</t>
+          <t>0,6809</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.3563 %</t>
+          <t>0,3563</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.4377 %</t>
+          <t>0,4377</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.4548 %</t>
+          <t>1,4548</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4248 %</t>
+          <t>1,4248</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.563 %</t>
+          <t>0,563</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.0124 %</t>
+          <t>1,0124</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.5223 %</t>
+          <t>0,5223</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.2763 %</t>
+          <t>0,2763</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.3095 %</t>
+          <t>0,3095</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.6858 %</t>
+          <t>0,6858</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.7475 %</t>
+          <t>0,7475</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.4267 %</t>
+          <t>0,4267</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.3 %</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.5509 %</t>
+          <t>0,5509</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.2832 %</t>
+          <t>0,2832</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.4453 %</t>
+          <t>0,4453</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.4665 %</t>
+          <t>0,4665</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.7533 %</t>
+          <t>0,7533</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.6807 %</t>
+          <t>0,6807</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.4696 %</t>
+          <t>0,4696</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.4439 %</t>
+          <t>0,4439</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.4431 %</t>
+          <t>0,4431</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.3538 %</t>
+          <t>0,3538</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.36 %</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.7527 %</t>
+          <t>0,7527</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.8292 %</t>
+          <t>0,8292</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.7735 %</t>
+          <t>0,7735</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.7785 %</t>
+          <t>0,7785</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.9401 %</t>
+          <t>0,9401</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6364 %</t>
+          <t>0,6364</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.8182 %</t>
+          <t>0,8182</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.5771 %</t>
+          <t>0,5771</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.6436 %</t>
+          <t>0,6436</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.4418 %</t>
+          <t>0,4418</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.5839 %</t>
+          <t>0,5839</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.567 %</t>
+          <t>0,567</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.8032 %</t>
+          <t>0,8032</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1.037 %</t>
+          <t>1,037</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.7894 %</t>
+          <t>0,7894</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.5164 %</t>
+          <t>0,5164</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.0381 %</t>
+          <t>1,0381</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.6841 %</t>
+          <t>0,6841</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.4999 %</t>
+          <t>0,4999</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.645 %</t>
+          <t>0,645</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>1.354 %</t>
+          <t>1,354</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.9492 %</t>
+          <t>0,9492</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.4119 %</t>
+          <t>0,4119</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.5031 %</t>
+          <t>0,5031</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.664 %</t>
+          <t>0,664</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>1.4797 %</t>
+          <t>1,4797</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.4225 %</t>
+          <t>0,4225</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.569 %</t>
+          <t>0,569</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.9901 %</t>
+          <t>0,9901</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.9339 %</t>
+          <t>0,9339</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.3552 %</t>
+          <t>0,3552</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.3557 %</t>
+          <t>0,3557</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.6204 %</t>
+          <t>0,6204</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.381 %</t>
+          <t>0,381</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.5549 %</t>
+          <t>0,5549</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.4541 %</t>
+          <t>0,4541</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.934 %</t>
+          <t>0,934</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.4217 %</t>
+          <t>0,4217</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.5241 %</t>
+          <t>0,5241</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.6131 %</t>
+          <t>0,6131</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>1.1199 %</t>
+          <t>1,1199</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.5627 %</t>
+          <t>0,5627</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.3564 %</t>
+          <t>0,3564</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.5131 %</t>
+          <t>0,5131</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>1.1546 %</t>
+          <t>1,1546</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.571 %</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.5556 %</t>
+          <t>0,5556</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.2763 %</t>
+          <t>0,2763</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>2.1798 %</t>
+          <t>2,1798</t>
         </is>
       </c>
     </row>
@@ -1041,227 +1041,227 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.9649 %</t>
+          <t>1,9649</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.4517 %</t>
+          <t>0,4517</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.4779 %</t>
+          <t>0,4779</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3757 %</t>
+          <t>0,3757</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4297 %</t>
+          <t>0,4297</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5703 %</t>
+          <t>0,5703</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.4719 %</t>
+          <t>0,4719</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3622 %</t>
+          <t>0,3622</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3736 %</t>
+          <t>0,3736</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3916 %</t>
+          <t>0,3916</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.7926 %</t>
+          <t>0,7926</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.3646 %</t>
+          <t>0,3646</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.3706 %</t>
+          <t>0,3706</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.5731 %</t>
+          <t>0,5731</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.7489 %</t>
+          <t>0,7489</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.3284 %</t>
+          <t>0,3284</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.9558 %</t>
+          <t>0,9558</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.596 %</t>
+          <t>0,596</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.1348 %</t>
+          <t>1,1348</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.6555 %</t>
+          <t>0,6555</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.8137 %</t>
+          <t>0,8137</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.9984 %</t>
+          <t>0,9984</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.1124 %</t>
+          <t>1,1124</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.526 %</t>
+          <t>1,526</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1.6929 %</t>
+          <t>1,6929</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.8672 %</t>
+          <t>0,8672</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.8474 %</t>
+          <t>0,8474</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.4343 %</t>
+          <t>1,4343</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.7299 %</t>
+          <t>0,7299</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.7502 %</t>
+          <t>0,7502</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.4273 %</t>
+          <t>0,4273</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1.2897 %</t>
+          <t>1,2897</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.5977 %</t>
+          <t>0,5977</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.5739 %</t>
+          <t>0,5739</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.6905 %</t>
+          <t>0,6905</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.4578 %</t>
+          <t>0,4578</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.5471 %</t>
+          <t>0,5471</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.4749 %</t>
+          <t>0,4749</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.3443 %</t>
+          <t>0,3443</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.4877 %</t>
+          <t>0,4877</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.1975 %</t>
+          <t>0,1975</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.4412 %</t>
+          <t>0,4412</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.5434 %</t>
+          <t>0,5434</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.6278 %</t>
+          <t>0,6278</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.7879 %</t>
+          <t>0,7879</t>
         </is>
       </c>
     </row>
@@ -1273,212 +1273,212 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.1531 %</t>
+          <t>2,1531</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6326 %</t>
+          <t>0,6326</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.4464 %</t>
+          <t>0,4464</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.3935 %</t>
+          <t>0,3935</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.2345 %</t>
+          <t>0,2345</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1734 %</t>
+          <t>0,1734</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.1819 %</t>
+          <t>0,1819</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2144 %</t>
+          <t>0,2144</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.2116 %</t>
+          <t>0,2116</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.2944 %</t>
+          <t>0,2944</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.5829 %</t>
+          <t>0,5829</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.9244 %</t>
+          <t>0,9244</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.8493 %</t>
+          <t>0,8493</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.792 %</t>
+          <t>0,792</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.717 %</t>
+          <t>0,717</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.7117 %</t>
+          <t>0,7117</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.7921 %</t>
+          <t>0,7921</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.7998 %</t>
+          <t>0,7998</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.7098 %</t>
+          <t>0,7098</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.7409 %</t>
+          <t>0,7409</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.6306 %</t>
+          <t>0,6306</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.577 %</t>
+          <t>0,577</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.5648 %</t>
+          <t>0,5648</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.5624 %</t>
+          <t>0,5624</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.6672 %</t>
+          <t>0,6672</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.7731 %</t>
+          <t>0,7731</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.6908 %</t>
+          <t>0,6908</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.5843 %</t>
+          <t>0,5843</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.7637 %</t>
+          <t>0,7637</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1.1518 %</t>
+          <t>1,1518</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.9151 %</t>
+          <t>0,9151</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.6649 %</t>
+          <t>0,6649</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.6753 %</t>
+          <t>0,6753</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.6899 %</t>
+          <t>0,6899</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.8374 %</t>
+          <t>0,8374</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.9233 %</t>
+          <t>0,9233</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.7478 %</t>
+          <t>0,7478</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.8547 %</t>
+          <t>0,8547</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.9369 %</t>
+          <t>0,9369</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.9485 %</t>
+          <t>0,9485</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1.1415 %</t>
+          <t>1,1415</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.9718 %</t>
+          <t>0,9718</t>
         </is>
       </c>
     </row>
